--- a/pred_ohlcv/54_21/2019-10-10 ETC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-10 ETC ohlcv.xlsx
@@ -652,7 +652,7 @@
         <v>18534.7314</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>18538.45289890848</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>19010.40499890848</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>19932.22899890848</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>19137.49769890848</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>20650.28469890848</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>20211.07359890848</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>19978.18709890848</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>21324.40509890848</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>21223.30569890848</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>21223.30569890848</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>21223.30569890848</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>21955.16319890848</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>22452.63249890848</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>23110.76679890848</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>22015.67059890848</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>22530.54768148487</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>25590.52299890848</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>28217.12130506122</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>24848.91400506123</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>22177.27140506123</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>21961.01340506123</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>20763.48370506123</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>21507.72920506123</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>21286.56726537093</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>21128.40986537093</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>21285.59676537093</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>21305.96916537093</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>21186.06086537093</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>21186.06086537093</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>21186.06086537093</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>20347.61256537093</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>19627.93916537093</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>18397.72416537093</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -15602,7 +15602,7 @@
         <v>-4250.422363476796</v>
       </c>
       <c r="H585">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="586" spans="1:8">
@@ -15628,7 +15628,7 @@
         <v>-4250.422363476796</v>
       </c>
       <c r="H586">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="587" spans="1:8">
@@ -15654,7 +15654,7 @@
         <v>-4250.422363476796</v>
       </c>
       <c r="H587">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="588" spans="1:8">
@@ -15680,7 +15680,7 @@
         <v>-4250.422363476796</v>
       </c>
       <c r="H588">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="589" spans="1:8">
@@ -15706,7 +15706,7 @@
         <v>-4056.680363476796</v>
       </c>
       <c r="H589">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="590" spans="1:8">
@@ -15732,7 +15732,7 @@
         <v>-4056.680363476796</v>
       </c>
       <c r="H590">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="591" spans="1:8">
@@ -15784,7 +15784,7 @@
         <v>-3765.690563476796</v>
       </c>
       <c r="H592">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="593" spans="1:8">
@@ -15810,7 +15810,7 @@
         <v>-3765.690563476796</v>
       </c>
       <c r="H593">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="594" spans="1:8">
@@ -15836,7 +15836,7 @@
         <v>-3481.644063476796</v>
       </c>
       <c r="H594">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="595" spans="1:8">
@@ -15862,7 +15862,7 @@
         <v>-4244.459363476796</v>
       </c>
       <c r="H595">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="596" spans="1:8">
@@ -15888,7 +15888,7 @@
         <v>-4237.638130654972</v>
       </c>
       <c r="H596">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="597" spans="1:8">
@@ -15914,7 +15914,7 @@
         <v>-4242.343230654972</v>
       </c>
       <c r="H597">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="598" spans="1:8">
@@ -15940,7 +15940,7 @@
         <v>-4243.880630654972</v>
       </c>
       <c r="H598">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="599" spans="1:8">
@@ -15966,7 +15966,7 @@
         <v>-4019.128630654972</v>
       </c>
       <c r="H599">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="600" spans="1:8">
@@ -15992,7 +15992,7 @@
         <v>-3891.071830654972</v>
       </c>
       <c r="H600">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="601" spans="1:8">
@@ -16018,7 +16018,7 @@
         <v>-3891.071830654972</v>
       </c>
       <c r="H601">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="602" spans="1:8">
@@ -16044,7 +16044,7 @@
         <v>-3926.671730654973</v>
       </c>
       <c r="H602">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="603" spans="1:8">
@@ -16070,7 +16070,7 @@
         <v>-3927.808930654973</v>
       </c>
       <c r="H603">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="604" spans="1:8">
@@ -16096,7 +16096,7 @@
         <v>-3910.008930654973</v>
       </c>
       <c r="H604">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="605" spans="1:8">
@@ -16122,7 +16122,7 @@
         <v>-3908.008930654973</v>
       </c>
       <c r="H605">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="606" spans="1:8">
@@ -16148,7 +16148,7 @@
         <v>-3857.078930654973</v>
       </c>
       <c r="H606">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="607" spans="1:8">
@@ -16174,7 +16174,7 @@
         <v>-3857.078930654973</v>
       </c>
       <c r="H607">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="608" spans="1:8">
@@ -16200,7 +16200,7 @@
         <v>-4198.248330654973</v>
       </c>
       <c r="H608">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="609" spans="1:8">
@@ -16226,7 +16226,7 @@
         <v>-4580.291530654973</v>
       </c>
       <c r="H609">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="610" spans="1:8">
@@ -16252,7 +16252,7 @@
         <v>-4539.578730654973</v>
       </c>
       <c r="H610">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="611" spans="1:8">
@@ -16304,7 +16304,7 @@
         <v>-4156.470030654973</v>
       </c>
       <c r="H612">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="613" spans="1:8">
@@ -16330,7 +16330,7 @@
         <v>-4227.593730654973</v>
       </c>
       <c r="H613">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="614" spans="1:8">
@@ -16486,7 +16486,7 @@
         <v>617.2279795145189</v>
       </c>
       <c r="H619">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="620" spans="1:8">
@@ -16512,7 +16512,7 @@
         <v>464.4254795145189</v>
       </c>
       <c r="H620">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="621" spans="1:8">
@@ -16538,7 +16538,7 @@
         <v>450.0050795145189</v>
       </c>
       <c r="H621">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="622" spans="1:8">
@@ -16616,7 +16616,7 @@
         <v>2668.072408328078</v>
       </c>
       <c r="H624">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="625" spans="1:8">
@@ -16642,7 +16642,7 @@
         <v>2768.072408328078</v>
       </c>
       <c r="H625">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="626" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-10 ETC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-10 ETC ohlcv.xlsx
@@ -652,7 +652,7 @@
         <v>18534.7314</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>18538.45289890848</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>19010.40499890848</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>19932.22899890848</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>19137.49769890848</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>20650.28469890848</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>20211.07359890848</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>19978.18709890848</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>21324.40509890848</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>21223.30569890848</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>21223.30569890848</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>21223.30569890848</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>21955.16319890848</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>22452.63249890848</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>23110.76679890848</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>22015.67059890848</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>22530.54768148487</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>25590.52299890848</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>28692.43340720791</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>30056.9635163062</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>31224.3977163062</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>28217.12130506122</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>24848.91400506123</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>22177.27140506123</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>21961.01340506123</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>20763.48370506123</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>21507.72920506123</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>21286.56726537093</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>21128.40986537093</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>21285.59676537093</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>21305.96916537093</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>21186.06086537093</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>21186.06086537093</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>21186.06086537093</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>20347.61256537093</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>19627.93916537093</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>18397.72416537093</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>19628.25126537093</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>19452.47496537093</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>19429.25766537093</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>19431.25766537093</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>19175.61686537092</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>18929.48746537092</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>18924.33736537092</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>20471.42066537093</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -15524,7 +15524,7 @@
         <v>-3919.008363476796</v>
       </c>
       <c r="H582">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="583" spans="1:8">
@@ -15550,7 +15550,7 @@
         <v>-3925.997963476796</v>
       </c>
       <c r="H583">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="584" spans="1:8">
@@ -15602,7 +15602,7 @@
         <v>-4250.422363476796</v>
       </c>
       <c r="H585">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="586" spans="1:8">
@@ -15628,7 +15628,7 @@
         <v>-4250.422363476796</v>
       </c>
       <c r="H586">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="587" spans="1:8">
@@ -15654,7 +15654,7 @@
         <v>-4250.422363476796</v>
       </c>
       <c r="H587">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="588" spans="1:8">
@@ -15680,7 +15680,7 @@
         <v>-4250.422363476796</v>
       </c>
       <c r="H588">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="589" spans="1:8">
@@ -15706,7 +15706,7 @@
         <v>-4056.680363476796</v>
       </c>
       <c r="H589">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="590" spans="1:8">
@@ -15732,7 +15732,7 @@
         <v>-4056.680363476796</v>
       </c>
       <c r="H590">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="591" spans="1:8">
@@ -15758,7 +15758,7 @@
         <v>-3871.987463476796</v>
       </c>
       <c r="H591">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="592" spans="1:8">
@@ -15784,7 +15784,7 @@
         <v>-3765.690563476796</v>
       </c>
       <c r="H592">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="593" spans="1:8">
@@ -15810,7 +15810,7 @@
         <v>-3765.690563476796</v>
       </c>
       <c r="H593">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="594" spans="1:8">
@@ -15836,7 +15836,7 @@
         <v>-3481.644063476796</v>
       </c>
       <c r="H594">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="595" spans="1:8">
@@ -15862,7 +15862,7 @@
         <v>-4244.459363476796</v>
       </c>
       <c r="H595">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="596" spans="1:8">
@@ -15888,7 +15888,7 @@
         <v>-4237.638130654972</v>
       </c>
       <c r="H596">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="597" spans="1:8">
@@ -15914,7 +15914,7 @@
         <v>-4242.343230654972</v>
       </c>
       <c r="H597">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="598" spans="1:8">
@@ -15940,7 +15940,7 @@
         <v>-4243.880630654972</v>
       </c>
       <c r="H598">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="599" spans="1:8">
@@ -15966,7 +15966,7 @@
         <v>-4019.128630654972</v>
       </c>
       <c r="H599">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="600" spans="1:8">
@@ -15992,7 +15992,7 @@
         <v>-3891.071830654972</v>
       </c>
       <c r="H600">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="601" spans="1:8">
@@ -16018,7 +16018,7 @@
         <v>-3891.071830654972</v>
       </c>
       <c r="H601">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="602" spans="1:8">
@@ -16044,7 +16044,7 @@
         <v>-3926.671730654973</v>
       </c>
       <c r="H602">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="603" spans="1:8">
@@ -16070,7 +16070,7 @@
         <v>-3927.808930654973</v>
       </c>
       <c r="H603">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="604" spans="1:8">
@@ -16096,7 +16096,7 @@
         <v>-3910.008930654973</v>
       </c>
       <c r="H604">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="605" spans="1:8">
@@ -16122,7 +16122,7 @@
         <v>-3908.008930654973</v>
       </c>
       <c r="H605">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="606" spans="1:8">
@@ -16148,7 +16148,7 @@
         <v>-3857.078930654973</v>
       </c>
       <c r="H606">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="607" spans="1:8">
@@ -16174,7 +16174,7 @@
         <v>-3857.078930654973</v>
       </c>
       <c r="H607">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="608" spans="1:8">
@@ -16200,7 +16200,7 @@
         <v>-4198.248330654973</v>
       </c>
       <c r="H608">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="609" spans="1:8">
@@ -16226,7 +16226,7 @@
         <v>-4580.291530654973</v>
       </c>
       <c r="H609">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="610" spans="1:8">
@@ -16252,7 +16252,7 @@
         <v>-4539.578730654973</v>
       </c>
       <c r="H610">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="611" spans="1:8">
@@ -16304,7 +16304,7 @@
         <v>-4156.470030654973</v>
       </c>
       <c r="H612">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="613" spans="1:8">
@@ -16330,7 +16330,7 @@
         <v>-4227.593730654973</v>
       </c>
       <c r="H613">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="614" spans="1:8">
@@ -16590,7 +16590,7 @@
         <v>2668.072408328078</v>
       </c>
       <c r="H623">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="624" spans="1:8">
@@ -16668,7 +16668,7 @@
         <v>2769.072408328078</v>
       </c>
       <c r="H626">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="627" spans="1:8">
@@ -16694,7 +16694,7 @@
         <v>2480.932108328078</v>
       </c>
       <c r="H627">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="628" spans="1:8">
@@ -16720,7 +16720,7 @@
         <v>2480.932108328078</v>
       </c>
       <c r="H628">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="629" spans="1:8">
@@ -16746,7 +16746,7 @@
         <v>2252.126908328078</v>
       </c>
       <c r="H629">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="630" spans="1:8">
@@ -16772,7 +16772,7 @@
         <v>2401.126808328077</v>
       </c>
       <c r="H630">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="631" spans="1:8">
@@ -16798,7 +16798,7 @@
         <v>2991.576108328078</v>
       </c>
       <c r="H631">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="632" spans="1:8">
@@ -16824,7 +16824,7 @@
         <v>2991.576108328078</v>
       </c>
       <c r="H632">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="633" spans="1:8">
@@ -16850,7 +16850,7 @@
         <v>2991.576108328078</v>
       </c>
       <c r="H633">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="634" spans="1:8">
@@ -16876,7 +16876,7 @@
         <v>2991.576108328078</v>
       </c>
       <c r="H634">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="635" spans="1:8">
@@ -16902,7 +16902,7 @@
         <v>3697.099804774778</v>
       </c>
       <c r="H635">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="636" spans="1:8">
